--- a/biology/Histoire de la zoologie et de la botanique/Franz_Hermann_Troschel/Franz_Hermann_Troschel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Franz_Hermann_Troschel/Franz_Hermann_Troschel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Hermann Troschel est un zoologiste allemand, né le 10 octobre 1810 à Spandau, aujourd'hui un quartier de Berlin et mort le 6 novembre 1882 à Bonn.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Troschel étudie en 1831 à l’université de Berlin les mathématiques et l’histoire naturelle. En 1844, il est habilité Privatdozent en zoologie. À partir de 1840, il est l’assistant de Martin Lichtenstein (1780-1857), directeur du musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin). À partir de 1849, il est professeur de zoologie et d’histoire naturelle à l’université de Bonn.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Johannes Peter Müller (1801-1858) (en) System der Asteriden, Brunswick, Friedrich Vieweg und Sohn (lire en ligne) (1842)
 Über die Bedeutsamkeit des naturgeschichtlichen Unterrichts. Berlin 1845
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue allemande de Wikipédia (version du 4 décembre 2006).</t>
         </is>
